--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>626.6100000838231</v>
+        <v>841.7180349050435</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383183</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.713376518662864</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.613807964962734</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>488.6399999999913</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.31430901573738</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.41754315746531</v>
+        <v>17.62880953170718</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0193546320153</v>
+        <v>11.8446015159008</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152298</v>
+        <v>27.28226196994636</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>24.79316574842338</v>
       </c>
     </row>
     <row r="8">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.20683425157666</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,104 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>252.4649999999991</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>249.2849999999991</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>246.2249999999991</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>249.3099999999991</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0349999999991</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.4949999999988</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>121.6349999999989</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>109.3699999999988</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>122.0549999999988</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5549999999989</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>252.4649999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>249.2849999999991</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>246.2249999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>249.3099999999991</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>247.0349999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.46499999999912</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>49.28499999999914</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>46.22499999999908</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>49.30999999999915</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>47.03499999999914</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2079,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2101,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,12 +2112,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
